--- a/data/long_dif/P24_5-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_5-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>37,97%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27,8%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,34; 35,66</t>
+          <t>19,97; 36,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,85; 41,63</t>
+          <t>24,0; 46,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,74; 44,56</t>
+          <t>24,66; 45,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 57,78</t>
+          <t>16,41; 41,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 28,88</t>
+          <t>17,03; 45,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,22; 39,02</t>
+          <t>40,18; 57,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,5; 43,87</t>
+          <t>13,47; 28,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,39; 32,44</t>
+          <t>23,59; 40,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,62; 38,5</t>
+          <t>19,63; 37,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 40,11</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 44,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20,71; 34,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>27,27; 40,26</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 35,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 37,53</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>41,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,82%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>47,14%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>41,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,58; 57,49</t>
+          <t>38,65; 56,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 56,23</t>
+          <t>32,49; 53,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,7; 56,72</t>
+          <t>35,14; 56,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 38,25</t>
+          <t>29,16; 56,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,17; 44,65</t>
+          <t>27,21; 60,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,54; 57,48</t>
+          <t>22,66; 39,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 45,63</t>
+          <t>26,75; 45,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,33; 48,32</t>
+          <t>39,55; 57,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,23; 53,98</t>
+          <t>31,1; 52,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25,85; 53,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33,14; 45,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32,51; 46,92</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40,61; 54,61</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33,11; 51,1</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31,22; 53,34</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>30,45%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,78; 35,33</t>
+          <t>17,25; 32,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 34,39</t>
+          <t>14,46; 32,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,73; 32,19</t>
+          <t>12,52; 31,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,02; 29,56</t>
+          <t>18,23; 43,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,89; 54,3</t>
+          <t>15,1; 42,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 30,08</t>
+          <t>13,83; 28,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,39; 29,62</t>
+          <t>34,46; 53,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,09; 41,41</t>
+          <t>13,44; 28,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 27,19</t>
+          <t>21,67; 40,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 47,81</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 28,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26,53; 39,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 26,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,96; 38,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 40,22</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 47,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 22,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 35,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 31,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 40,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 37,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 36,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 29,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,43; 34,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,16%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>34,78%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29,86%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>35,81%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,06; 59,42</t>
+          <t>24,92; 51,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,15; 67,34</t>
+          <t>8,26; 21,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 61,34</t>
+          <t>18,11; 34,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,77; 53,86</t>
+          <t>23,02; 52,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,87; 44,03</t>
+          <t>26,63; 67,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,59; 48,97</t>
+          <t>16,51; 31,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,36; 54,13</t>
+          <t>25,33; 41,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,46; 54,8</t>
+          <t>23,85; 37,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,27; 52,43</t>
+          <t>26,56; 42,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,33; 36,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 38,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,32; 28,38</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>22,97; 33,62</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>26,87; 45,77</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>26,78; 49,84</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>39,41%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46,98%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>47,34%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46,28%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>33,35%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37,65%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 24,73</t>
+          <t>36,18; 59,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 38,96</t>
+          <t>47,52; 70,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,5; 32,21</t>
+          <t>41,38; 62,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 40,44</t>
+          <t>16,29; 39,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,15; 41,09</t>
+          <t>21,52; 67,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 35,0</t>
+          <t>37,16; 54,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,38; 29,62</t>
+          <t>26,97; 43,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,92; 36,56</t>
+          <t>33,92; 48,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,5; 31,8</t>
+          <t>31,36; 49,12</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 46,57</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39,6; 54,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40,24; 56,34</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>40,09; 54,3</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 40,96</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>26,78; 51,72</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37,14%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,89; 40,15</t>
+          <t>10,1; 23,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,84; 40,25</t>
+          <t>18,81; 37,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 26,26</t>
+          <t>15,65; 33,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,78; 37,3</t>
+          <t>20,3; 58,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 34,0</t>
+          <t>4,95; 31,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,51; 36,58</t>
+          <t>22,81; 39,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,08; 35,1</t>
+          <t>24,02; 41,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,01; 33,81</t>
+          <t>22,72; 35,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,43</t>
+          <t>18,01; 33,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27,91; 47,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 29,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,54; 36,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 31,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 46,43</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 35,3</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,90 +1929,124 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,2; 63,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,83; 56,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,22; 63,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,56; 51,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,61; 44,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,48; 45,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,1; 55,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,27; 48,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,95; 52,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -1528,7 +2056,37 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32,22%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>27,32%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>25,27%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>28,49%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>30,79%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,23; 29,78</t>
+          <t>19,51; 36,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,38; 32,96</t>
+          <t>19,33; 41,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,69; 33,31</t>
+          <t>14,99; 26,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,67; 31,4</t>
+          <t>18,16; 32,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 40,99</t>
+          <t>20,24; 39,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,39; 34,77</t>
+          <t>22,52; 34,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,77; 28,14</t>
+          <t>21,9; 33,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>25,26; 35,08</t>
+          <t>24,67; 35,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,7; 32,06</t>
+          <t>25,35; 38,53</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23,24; 41,94</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22,36; 33,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 34,15</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 29,43</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 33,21</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>24,98; 37,96</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>56,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>38,5%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>36,83%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49,32%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42,61%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>48,2%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>42,32%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,78; 27,5</t>
+          <t>44,09; 61,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,14; 26,47</t>
+          <t>37,01; 56,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,7; 24,59</t>
+          <t>47,69; 64,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,77; 28,24</t>
+          <t>37,93; 56,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,19; 24,68</t>
+          <t>42,02; 64,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,03; 35,22</t>
+          <t>39,37; 52,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,95; 25,97</t>
+          <t>32,09; 44,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,02</t>
+          <t>35,54; 46,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,29; 28,44</t>
+          <t>32,41; 44,76</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>28,47; 46,68</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43,43; 54,64</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37,36; 48,14</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>43,66; 53,16</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>37,61; 47,84</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>38,57; 52,38</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>29,79%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>29,19%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>55,86; 69,72</t>
+          <t>14,73; 29,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>52,16; 67,68</t>
+          <t>17,78; 32,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>47,71; 62,12</t>
+          <t>17,21; 34,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>46,05; 58,94</t>
+          <t>21,24; 36,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,69; 50,23</t>
+          <t>10,46; 26,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,32; 49,42</t>
+          <t>20,98; 32,25</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>53,03; 62,22</t>
+          <t>28,85; 40,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>47,44; 57,05</t>
+          <t>24,8; 34,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44,45; 53,34</t>
+          <t>23,73; 36,53</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 40,29</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 28,13</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 34,68</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 31,84</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 34,04</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 30,6</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,62; 21,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,69; 28,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,62; 33,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,12; 31,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,57; 43,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,43; 31,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,16; 24,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,34; 34,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,08; 30,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>29,84%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8,53; 19,01</t>
+          <t>15,77; 27,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,88</t>
+          <t>11,34; 26,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,64; 25,88</t>
+          <t>14,96; 24,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18,94; 33,23</t>
+          <t>24,22; 44,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,28; 25,69</t>
+          <t>18,71; 37,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>17,79; 29,8</t>
+          <t>18,49; 29,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,57; 24,25</t>
+          <t>14,22; 24,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,86; 17,89</t>
+          <t>25,4; 35,84</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,5; 25,99</t>
+          <t>23,3; 35,05</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 38,56</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>18,87; 26,68</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 23,39</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>21,13; 28,62</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>25,19; 36,75</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 35,61</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>40,22%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,31%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>56,88%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>52,44%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>48,45%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>45,72%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>42,42%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>62,23; 78,71</t>
+          <t>55,4; 68,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>59,68; 76,01</t>
+          <t>52,91; 68,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>55,46; 69,59</t>
+          <t>46,37; 60,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>47,52; 63,58</t>
+          <t>40,63; 58,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>40,2; 55,88</t>
+          <t>31,8; 53,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>44,17; 58,56</t>
+          <t>45,19; 58,01</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>56,5; 68,61</t>
+          <t>38,04; 51,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>53,07; 64,52</t>
+          <t>38,2; 49,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>51,9; 61,99</t>
+          <t>33,8; 47,42</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>33,59; 50,73</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>51,9; 61,17</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>47,5; 57,37</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>43,79; 52,93</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>39,63; 51,05</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>35,33; 48,88</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,85%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>20,56%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>29,64%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>28,57%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>9,94; 24,26</t>
+          <t>11,09; 21,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>14,81; 31,69</t>
+          <t>15,88; 27,57</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>13,07; 22,97</t>
+          <t>21,0; 35,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>13,86; 25,86</t>
+          <t>12,28; 24,05</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>26,71; 42,43</t>
+          <t>19,97; 42,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,87; 32,16</t>
+          <t>19,31; 30,47</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,58</t>
+          <t>30,58; 43,29</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>21,8; 33,04</t>
+          <t>21,23; 31,21</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>17,92; 25,71</t>
+          <t>24,45; 36,34</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,36; 36,57</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 24,66</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>25,13; 34,33</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 31,37</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 28,84</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>22,72; 36,81</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3,52; 12,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>8,22; 23,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>10,83; 22,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,42; 24,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>15,79; 28,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>8,7; 15,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>8,24; 18,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>13,7; 23,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>68,69%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>25,0%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>76,03; 89,47</t>
+          <t>8,96; 19,1</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>48,7; 78,98</t>
+          <t>5,61; 14,04</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>60,53; 79,34</t>
+          <t>13,67; 25,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>57,07; 72,81</t>
+          <t>18,46; 34,13</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>44,79; 64,12</t>
+          <t>15,84; 34,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>47,86; 64,84</t>
+          <t>18,34; 31,03</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>67,56; 78,67</t>
+          <t>11,27; 23,35</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>52,24; 67,33</t>
+          <t>17,82; 29,34</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>56,76; 68,82</t>
+          <t>22,8; 42,56</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>18,27; 35,03</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 23,87</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 17,03</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>17,11; 25,71</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 35,71</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 32,04</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>63,24%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>51,6%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>42,87%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>63,66%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>59,08%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>57,51%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>55,47%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>45,05%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>4,85; 14,71</t>
+          <t>62,72; 78,53</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>13,53; 45,88</t>
+          <t>60,96; 77,19</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>8,98; 24,66</t>
+          <t>55,83; 69,87</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>13,09; 26,69</t>
+          <t>49,48; 67,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>21,04; 37,9</t>
+          <t>36,97; 58,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>16,14; 29,14</t>
+          <t>48,65; 63,67</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,28</t>
+          <t>40,12; 55,87</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>21,2; 36,67</t>
+          <t>44,78; 58,52</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,08</t>
+          <t>41,22; 60,59</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 51,73</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>58,08; 69,11</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>53,05; 64,56</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>52,53; 62,14</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>48,3; 62,3</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>38,46; 52,99</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>31,25%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>29,95%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>18,61; 26,21</t>
+          <t>9,67; 24,1</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,55</t>
+          <t>14,39; 31,52</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>19,28; 24,77</t>
+          <t>12,9; 23,29</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>23,7; 29,45</t>
+          <t>9,11; 24,06</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>19,67; 25,05</t>
+          <t>19,56; 37,64</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>24,94; 30,15</t>
+          <t>13,67; 25,53</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,74</t>
+          <t>28,13; 43,11</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>18,18; 22,53</t>
+          <t>19,12; 30,99</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>23,06; 26,77</t>
+          <t>11,38; 24,87</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 40,86</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 22,19</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>22,97; 34,51</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 25,51</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>11,38; 21,68</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>23,99; 36,72</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>56,54; 64,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>53,68; 61,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>53,03; 60,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>46,72; 53,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>39,6; 46,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>44,24; 50,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>52,71; 58,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>47,11; 52,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>49,09; 53,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>34,99%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,24</t>
+          <t>3,82; 12,11</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>21,33; 28,62</t>
+          <t>3,44; 13,73</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>18,37; 24,65</t>
+          <t>7,71; 21,1</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>20,94; 26,23</t>
+          <t>2,73; 14,66</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>32,05; 38,2</t>
+          <t>5,21; 22,18</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,21</t>
+          <t>11,15; 22,02</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>18,32; 22,55</t>
+          <t>11,38; 26,12</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,39</t>
+          <t>16,53; 29,16</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>21,33; 25,6</t>
+          <t>12,53; 28,2</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>22,77; 50,03</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 16,24</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 19,31</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 23,76</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 19,66</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 36,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>83,87%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>71,18%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>72,71%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>77,44%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>74,87%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>63,65%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>53,96%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>57,21%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>44,79%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>72,48%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>60,81%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>62,1%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>65,94%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>57,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>75,7; 88,76</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>56,17; 79,43</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>62,85; 79,73</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 85,38</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>62,6; 83,97</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>55,5; 70,79</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>45,18; 62,41</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 61,6</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>47,56; 67,93</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>31,06; 57,79</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>66,31; 77,52</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>53,36; 67,22</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>55,83; 67,93</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>58,64; 73,03</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>47,16; 66,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>29,37%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 15,66</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 38,51</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 24,92</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 25,91</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 25,13</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>14,48; 29,73</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 37,29</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 32,24</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>16,13; 33,26</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>12,29; 33,22</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 21,43</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>20,52; 33,76</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 25,65</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 26,2</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 25,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>22,21%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>26,38%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 25,94</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 22,38</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 24,85</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 31,36</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 33,5</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>23,77; 29,11</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 25,08</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>25,36; 30,35</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 32,23</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>25,52; 34,68</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 26,89</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 22,69</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 27,09</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>24,49; 30,2</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 32,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>60,85%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>50,09%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>50,04%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>49,99%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>46,58%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>44,84%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>55,3%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>50,29%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>51,56%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>45,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>57,07; 64,43</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>54,03; 62,1</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>52,96; 60,13</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>44,54; 54,56</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>44,4; 55,85</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>46,9; 52,99</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 46,11</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>43,86; 49,48</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>41,57; 48,4</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>36,21; 45,45</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>52,7; 57,45</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>47,73; 52,86</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>49,14; 53,75</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>44,58; 50,18</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>41,91; 49,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 19,67</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 27,52</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 24,73</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>19,7; 30,82</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 27,16</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 26,77</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>32,08; 38,14</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>23,26; 28,15</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 29,37</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>25,76; 33,83</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 22,58</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>27,2; 31,77</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 25,69</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>22,72; 28,6</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>22,45; 28,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_5-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_5-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
